--- a/docs/Cenários.xlsx
+++ b/docs/Cenários.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carlo\Projeto\Desafio-Tecnorise\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8535"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Página1'!$A$5:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Página1!$A$5:$H$12</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Titulo:</t>
   </si>
@@ -154,27 +163,40 @@
   </si>
   <si>
     <t>007</t>
+  </si>
+  <si>
+    <t>Cadastros multiplos</t>
+  </si>
+  <si>
+    <t>Cadastrar varios produtos afim de criar uma lista</t>
+  </si>
+  <si>
+    <t>Exibir listagem com todos os produtos cadastrados</t>
+  </si>
+  <si>
+    <t>Foi exiba a listagem com todos os produtos cadastrados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -185,7 +207,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -207,7 +229,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -221,71 +249,68 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -475,38 +500,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.25"/>
-    <col customWidth="1" min="2" max="2" width="13.75"/>
-    <col customWidth="1" min="3" max="3" width="9.38"/>
-    <col customWidth="1" min="4" max="4" width="15.13"/>
-    <col customWidth="1" min="5" max="5" width="23.13"/>
-    <col customWidth="1" min="6" max="6" width="15.88"/>
-    <col customWidth="1" min="7" max="7" width="11.75"/>
-    <col customWidth="1" min="8" max="8" width="8.63"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="11"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -515,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -541,181 +572,193 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$5:$H$12"/>
+  <autoFilter ref="A5:H12"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>